--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.489329317786743</v>
+        <v>0.1152986666666667</v>
       </c>
       <c r="H2">
-        <v>0.489329317786743</v>
+        <v>0.345896</v>
       </c>
       <c r="I2">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="J2">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>0.1963678983724615</v>
+        <v>0.046560714664</v>
       </c>
       <c r="R2">
-        <v>0.1963678983724615</v>
+        <v>0.419046431976</v>
       </c>
       <c r="S2">
-        <v>0.003078230286555521</v>
+        <v>0.0005982567219229748</v>
       </c>
       <c r="T2">
-        <v>0.003078230286555521</v>
+        <v>0.0005982567219229747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.489329317786743</v>
+        <v>0.1152986666666667</v>
       </c>
       <c r="H3">
-        <v>0.489329317786743</v>
+        <v>0.345896</v>
       </c>
       <c r="I3">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="J3">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>11.46698202226499</v>
+        <v>0.01585541144533333</v>
       </c>
       <c r="R3">
-        <v>11.46698202226499</v>
+        <v>0.142698703008</v>
       </c>
       <c r="S3">
-        <v>0.1797544896537627</v>
+        <v>0.0002037255343797215</v>
       </c>
       <c r="T3">
-        <v>0.1797544896537627</v>
+        <v>0.0002037255343797215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.489329317786743</v>
+        <v>0.1152986666666667</v>
       </c>
       <c r="H4">
-        <v>0.489329317786743</v>
+        <v>0.345896</v>
       </c>
       <c r="I4">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="J4">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>24.89146750144271</v>
+        <v>2.702204196119111</v>
       </c>
       <c r="R4">
-        <v>24.89146750144271</v>
+        <v>24.319837765072</v>
       </c>
       <c r="S4">
-        <v>0.3901944756490747</v>
+        <v>0.03472051140114189</v>
       </c>
       <c r="T4">
-        <v>0.3901944756490747</v>
+        <v>0.03472051140114189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.489329317786743</v>
+        <v>0.1152986666666667</v>
       </c>
       <c r="H5">
-        <v>0.489329317786743</v>
+        <v>0.345896</v>
       </c>
       <c r="I5">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="J5">
-        <v>0.5762650122245127</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>0.2065483049565164</v>
+        <v>6.187965678648889</v>
       </c>
       <c r="R5">
-        <v>0.2065483049565164</v>
+        <v>55.69169110784</v>
       </c>
       <c r="S5">
-        <v>0.003237816635119719</v>
+        <v>0.07950891838742935</v>
       </c>
       <c r="T5">
-        <v>0.003237816635119719</v>
+        <v>0.07950891838742934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.35981006670898</v>
+        <v>0.1152986666666667</v>
       </c>
       <c r="H6">
-        <v>0.35981006670898</v>
+        <v>0.345896</v>
       </c>
       <c r="I6">
-        <v>0.4237349877754873</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="J6">
-        <v>0.4237349877754873</v>
+        <v>0.1156688842087241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>0.144391811495117</v>
+        <v>0.04961274723644445</v>
       </c>
       <c r="R6">
-        <v>0.144391811495117</v>
+        <v>0.446514725128</v>
       </c>
       <c r="S6">
-        <v>0.002263461853789524</v>
+        <v>0.0006374721638501262</v>
       </c>
       <c r="T6">
-        <v>0.002263461853789524</v>
+        <v>0.0006374721638501261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.35981006670898</v>
+        <v>0.5007510000000001</v>
       </c>
       <c r="H7">
-        <v>0.35981006670898</v>
+        <v>1.502253</v>
       </c>
       <c r="I7">
-        <v>0.4237349877754873</v>
+        <v>0.5023588833325865</v>
       </c>
       <c r="J7">
-        <v>0.4237349877754873</v>
+        <v>0.5023588833325865</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>8.431817625487106</v>
+        <v>0.202216774077</v>
       </c>
       <c r="R7">
-        <v>8.431817625487106</v>
+        <v>1.819950966693</v>
       </c>
       <c r="S7">
-        <v>0.1321757609090294</v>
+        <v>0.002598275074817155</v>
       </c>
       <c r="T7">
-        <v>0.1321757609090294</v>
+        <v>0.002598275074817155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.35981006670898</v>
+        <v>0.5007510000000001</v>
       </c>
       <c r="H8">
-        <v>0.35981006670898</v>
+        <v>1.502253</v>
       </c>
       <c r="I8">
-        <v>0.4237349877754873</v>
+        <v>0.5023588833325865</v>
       </c>
       <c r="J8">
-        <v>0.4237349877754873</v>
+        <v>0.5023588833325865</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>18.3030124225701</v>
+        <v>0.06886127451600001</v>
       </c>
       <c r="R8">
-        <v>18.3030124225701</v>
+        <v>0.619751470644</v>
       </c>
       <c r="S8">
-        <v>0.2869149572884486</v>
+        <v>0.0008847957050631976</v>
       </c>
       <c r="T8">
-        <v>0.2869149572884486</v>
+        <v>0.0008847957050631976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="H9">
+        <v>1.502253</v>
+      </c>
+      <c r="I9">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="J9">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N9">
+        <v>70.309682</v>
+      </c>
+      <c r="O9">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P9">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q9">
+        <v>11.735881190394</v>
+      </c>
+      <c r="R9">
+        <v>105.622930713546</v>
+      </c>
+      <c r="S9">
+        <v>0.1507938583097221</v>
+      </c>
+      <c r="T9">
+        <v>0.150793858309722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.502253</v>
+      </c>
+      <c r="I10">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="J10">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N10">
+        <v>161.00704</v>
+      </c>
+      <c r="O10">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P10">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q10">
+        <v>26.87481209568001</v>
+      </c>
+      <c r="R10">
+        <v>241.87330886112</v>
+      </c>
+      <c r="S10">
+        <v>0.3453133634799793</v>
+      </c>
+      <c r="T10">
+        <v>0.3453133634799792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.502253</v>
+      </c>
+      <c r="I11">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="J11">
+        <v>0.5023588833325865</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.290893</v>
+      </c>
+      <c r="O11">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P11">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q11">
+        <v>0.215471986881</v>
+      </c>
+      <c r="R11">
+        <v>1.939247881929</v>
+      </c>
+      <c r="S11">
+        <v>0.002768590763004902</v>
+      </c>
+      <c r="T11">
+        <v>0.002768590763004902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3807496666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.142249</v>
+      </c>
+      <c r="I12">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="J12">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.403827</v>
+      </c>
+      <c r="N12">
+        <v>1.211481</v>
+      </c>
+      <c r="O12">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P12">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q12">
+        <v>0.153756995641</v>
+      </c>
+      <c r="R12">
+        <v>1.383812960769</v>
+      </c>
+      <c r="S12">
+        <v>0.001975617360015138</v>
+      </c>
+      <c r="T12">
+        <v>0.001975617360015138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.35981006670898</v>
-      </c>
-      <c r="H9">
-        <v>0.35981006670898</v>
-      </c>
-      <c r="I9">
-        <v>0.4237349877754873</v>
-      </c>
-      <c r="J9">
-        <v>0.4237349877754873</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N9">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O9">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P9">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q9">
-        <v>0.151877593848607</v>
-      </c>
-      <c r="R9">
-        <v>0.151877593848607</v>
-      </c>
-      <c r="S9">
-        <v>0.002380807724219777</v>
-      </c>
-      <c r="T9">
-        <v>0.002380807724219777</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3807496666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.142249</v>
+      </c>
+      <c r="I13">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="J13">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>0.05235917116133334</v>
+      </c>
+      <c r="R13">
+        <v>0.4712325404520001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006727608527410048</v>
+      </c>
+      <c r="T13">
+        <v>0.0006727608527410048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3807496666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.142249</v>
+      </c>
+      <c r="I14">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="J14">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>8.923462661646445</v>
+      </c>
+      <c r="R14">
+        <v>80.311163954818</v>
+      </c>
+      <c r="S14">
+        <v>0.1146572074480275</v>
+      </c>
+      <c r="T14">
+        <v>0.1146572074480275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3807496666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.142249</v>
+      </c>
+      <c r="I15">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="J15">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>20.43445893699556</v>
+      </c>
+      <c r="R15">
+        <v>183.91013043296</v>
+      </c>
+      <c r="S15">
+        <v>0.2625615286650403</v>
+      </c>
+      <c r="T15">
+        <v>0.2625615286650403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3807496666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.142249</v>
+      </c>
+      <c r="I16">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="J16">
+        <v>0.3819722324586895</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>0.1638356931507778</v>
+      </c>
+      <c r="R16">
+        <v>1.474521238357</v>
+      </c>
+      <c r="S16">
+        <v>0.002105118132865494</v>
+      </c>
+      <c r="T16">
+        <v>0.002105118132865494</v>
       </c>
     </row>
   </sheetData>
